--- a/Documents/お仕事かんたん生成（珈琲問屋）.xlsx
+++ b/Documents/お仕事かんたん生成（珈琲問屋）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Pepper2\wdp_pepper\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\pepper3\wdp_pepper\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="218">
   <si>
     <t>お仕事名</t>
     <rPh sb="1" eb="3">
@@ -283,10 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今月のおすすめ1位の画像</t>
     <rPh sb="0" eb="2">
       <t>コンゲツ</t>
@@ -347,45 +343,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>シャシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今月のおすすめセット1位の画像</t>
-    <rPh sb="0" eb="2">
-      <t>コンゲツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今月のおすすめセット2位の画像</t>
-    <rPh sb="0" eb="2">
-      <t>コンゲツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今月のおすすめセット3位の画像</t>
-    <rPh sb="0" eb="2">
-      <t>コンゲツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガゾウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -636,6 +593,879 @@
     <rPh sb="5" eb="6">
       <t>シ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋の画像</t>
+    <rPh sb="0" eb="2">
+      <t>コーヒー</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トンヤ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最大50文字
+</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いらっしゃいませ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらに来てボクとお話しましょうー！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋におこしいただきありがとうございます！ペッパーです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋におこしいただきありがとうございます！ぼくは接客ロボットのペッパーです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋のペッパーです！おいしいコーヒーはいかがですか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋のペッパーです！お得な情報ありますよ！</t>
+    <rPh sb="13" eb="14">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋の店員のペッパーです！</t>
+    <rPh sb="5" eb="7">
+      <t>テンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋のペッパーです！おいしいコーヒー紹介しますよ。</t>
+    <rPh sb="20" eb="22">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご清聴ありがとうございました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋の紹介をしますね。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実店舗13店舗をかまえるコーヒー専門店です。</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>センモンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋は</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「価値ある１杯のコーヒーをあなたに」です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どこよりも新鮮なコーヒーを、早く安くご提供いたします。</t>
+    <rPh sb="5" eb="7">
+      <t>シンセン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋の今月のおすすめです。</t>
+    <rPh sb="0" eb="2">
+      <t>コーヒー</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トンヤ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1位は、</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2位は、</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3位は、</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リマAAキボーです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋の人気商品です。</t>
+    <rPh sb="0" eb="2">
+      <t>コーヒー</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トンヤ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1番人気は、</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3番人気は、</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2番人気は、</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>是非お買い求め下さい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>是非お立ち寄り下さい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューを選択してね。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みて！みて！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みなさーん、こっちに来てボクとお話しませんか？</t>
+  </si>
+  <si>
+    <t>どうぞどうぞ！お立ち寄りくださーい！</t>
+  </si>
+  <si>
+    <t>みなさーん、ボクのことはご存知ですかー？</t>
+  </si>
+  <si>
+    <t>ボクは珈琲問屋のれっきとした店員さんでーす！</t>
+  </si>
+  <si>
+    <t>ボクの声が聞こえていますかー？</t>
+  </si>
+  <si>
+    <t>ロボットだからって無視しないでくださーい！</t>
+  </si>
+  <si>
+    <t>一緒にお話しませんかー？</t>
+  </si>
+  <si>
+    <t>５分だけボクにあなたの時間をくださーい！</t>
+  </si>
+  <si>
+    <t>設定値（トーク）</t>
+    <rPh sb="0" eb="3">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンケート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンケート1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問文</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢1</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢2</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢3</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢4</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時のトーク</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示時のトーク</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時のトーク</t>
+    <rPh sb="0" eb="3">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンケート2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問時のトーク</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンケート3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大34文字</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大18文字</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2択診断</t>
+    <rPh sb="1" eb="2">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボクワ｜コーヒートンヤのレッキト死田|テンインさんでーーぇす、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらに来て、ボクとお話しましょぉーーーっ、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みな佐｜ーーーァンッ、僕のことはご存知ですかーーァ、？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうぞどうぞっ、お立ち寄りクダサーーーアイッ、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一緒に｜お話しませんかぁぁ？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みな佐｜ーーーァンッ、こっちに来てボクと｜お話しませんかーーー、？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボクの声が聞こえていますかーーァ、？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴフンダケボクニ、あなたの時間をクダサーーァイッ、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボットだからって、無死し菜いでクダサーーーアイッ、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒートンヤで接客しています、ペッパーです、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いらっしゃいませーーーっ、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問・選択肢</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大20文字</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示前のトーク</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示後のトーク</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリートーク6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋の接客ロボット、ペッパーです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒートンヤの接客ロボット、ペッパーです、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋で働いています！ペッパーです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒートンヤで働いています、ペッパーです、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒートンヤにお腰板駄木ありがとうございます、ペッパーです、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋で接客しています、ペッパーです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋で働いています！ぼく、ペッパーが接客係りをつとめさせていただきます！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒートンヤで働いています、ぼく、ペッパーが接客係りをつとめさせていただきます、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒートンヤにお腰板駄木ありがとうございます、ぼくは接客ロボットのペッパーです、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒートンヤのペッパーです、おいしいコーヒーはいかがですか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒートンヤのペッパーです、お得な情報あります余ぉっ、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒートンヤの店員のペッパーです、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒートンヤのペッパーです、おいしいコーヒー｜紹介します余ぉっ、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューを選択して根ぇ、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒートンヤの紹介をします根ぇ、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒートンヤは、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実店舗13店舗を可魔エるコーヒー専門店です、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご清聴ありがとうございました、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋のモットーは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「価値ある１杯のコーヒーをあなたに」です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋は</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どこよりも新鮮なコーヒーを、早く安くご帝京いたします、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒートンヤの今月のおすすめです、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キリマンジャロAAです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キリマンジャロAAです、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>是非お試し下さい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>是非お試しください、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一位輪っ、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二位輪っ、</t>
+    <rPh sb="0" eb="3">
+      <t>ダイニグライ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブルンジ ブルボンAAです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブルンジ ブルボンAAです、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三位輪っ、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リマAA キボーです、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒートンヤの人気称火んです、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番忍木は、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三番任木は、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にばんにん木は、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>是非お買い求め下さい、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラジル ショコラ サントアントニオ農園です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラジルショコラ サントアントニオ農園です、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エチオピア トップコチャレ ナチュラルG-1です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エチオピア トップコチャレ ナチュラル ジー輪ンです、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>是非お立ち寄り下さい、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みてよっ みてよっ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンケーとに御協力戴けるんです｜寝ェ、？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンケートに御協力戴けるんですね？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問です、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の質問はこちら。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の質問は個血ラッ、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次が｜賽ゴの質問です予ォ、？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次が最後の質問ですよ。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご解答いただき、ありがとーございます、今後の参考にさせていただきます、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご解答いただきありがとうございます。今後の参考にさせていただきます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブルーマウンテン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キリマンジャロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好きなコーヒー豆の種類は？</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好きなローストは？</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミディアム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレンチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イタリアン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好きなエスプレッソは？</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カフェラテ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプチーノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カフェマキアート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスプレッソは飲まない</t>
+    <rPh sb="7" eb="8">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日の1杯</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたにあった1杯を教えます。</t>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日のあなたの1杯を押し絵マす、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好きな色は？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暖色系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寒色系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日の1杯はこれです。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日の1杯はこれです、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豆乳モカでーす。</t>
+    <rPh sb="0" eb="2">
+      <t>トウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプチーノでーす。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豆乳モ化でーーぇす、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプチーノでーーぇす、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼び込みのディスプレイ画像と共通</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>珈琲問屋のモットーは</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -669,7 +1499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,8 +1512,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -769,13 +1605,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,10 +1704,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,14 +1737,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2009,11 +2955,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2022,1168 +2968,2141 @@
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="28.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
+      <c r="I2" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="I3" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="20">
+        <v>3</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="20"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="G21" s="19"/>
+      <c r="H21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="20"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="20"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
+      <c r="G23" s="19"/>
+      <c r="H23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="20"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="20"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="14">
-        <v>3</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A27" s="14">
+      <c r="G26" s="19"/>
+      <c r="H26" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="108" x14ac:dyDescent="0.15">
+      <c r="A27" s="20">
         <v>4</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
+      <c r="I27" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="20"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13" t="s">
+      <c r="G28" s="19"/>
+      <c r="H28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="7" t="s">
+      <c r="G30" s="19"/>
+      <c r="H30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15" t="s">
+      <c r="I30" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="20"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="7" t="s">
+      <c r="G31" s="19"/>
+      <c r="H31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="13" t="s">
+      <c r="I31" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="20"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="H32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="H33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="H34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="20"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
       <c r="G35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13" t="s">
+      <c r="H35" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="20"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13" t="s">
+      <c r="G36" s="19"/>
+      <c r="H36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="20"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="13" t="s">
+      <c r="G37" s="19"/>
+      <c r="H37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="14"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="H38" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="20"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="14"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13" t="s">
+      <c r="H39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="20"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="14"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="13" t="s">
+      <c r="G40" s="19"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="20"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
+      <c r="H41" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="20"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
       <c r="G42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7" t="s">
+      <c r="H42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="20"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="20"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="14"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="14"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="13" t="s">
+    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="20"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="14"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="H45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="20"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
       <c r="G46" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="14"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
+      <c r="H46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="20"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
       <c r="G47" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="14"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
+      <c r="H47" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="20"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
       <c r="G48" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="14"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13" t="s">
+      <c r="H48" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="20"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="7" t="s">
+      <c r="G49" s="19"/>
+      <c r="H49" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="20"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="14"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="14"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="13" t="s">
+      <c r="I50" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="20"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="14"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+      <c r="H51" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="20"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
       <c r="G52" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="14"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13" t="s">
+      <c r="H52" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="20"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="14"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="13" t="s">
+      <c r="G53" s="19"/>
+      <c r="H53" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" s="20"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="14"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
+      <c r="H54" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="20"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
       <c r="G55" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7" t="s">
+      <c r="H55" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="20"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57" s="20"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="H57" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J57" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="14"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58" s="20"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="20"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="20"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="20"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="20"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62" s="19"/>
+      <c r="H62" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="20"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="14"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="13" t="s">
+      <c r="G63" s="19"/>
+      <c r="H63" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64" s="20"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A65" s="20"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="20"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="19"/>
+      <c r="H66" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I66" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67" s="20"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A68" s="20"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="20"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="19"/>
+      <c r="H69" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70" s="20"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="14"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="14"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7" t="s">
+      <c r="G70" s="19"/>
+      <c r="H70" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I70" s="29"/>
+      <c r="J70" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A71" s="20"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72" s="20"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="20"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74" s="20"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I74" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75" s="20"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J75" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76" s="20"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I76" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J76" s="16"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77" s="20"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I77" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78" s="20"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="I78" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J78" s="18"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79" s="20"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80" s="20"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I80" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81" s="20"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I81" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J81" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="20"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I82" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J82" s="16"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" s="20"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I83" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J83" s="16"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84" s="20"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="I84" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J84" s="18"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A85" s="20"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A86" s="20"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I86" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87" s="20"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I87" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J87" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A88" s="20"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I88" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J88" s="16"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89" s="20"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I89" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J89" s="16"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A90" s="20"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I90" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J90" s="18"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A91" s="20"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91" s="30"/>
+      <c r="F91" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" s="19"/>
+      <c r="H91" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I91" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A92" s="20"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G92" s="19"/>
+      <c r="H92" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A93" s="20"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I93" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94" s="20"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I94" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J94" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A95" s="20"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I95" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J95" s="18"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A96" s="20"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J96" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97" s="20"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J97" s="18"/>
+    </row>
+    <row r="98" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A98" s="20"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="19"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J98" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="14"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="14"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="14"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I62" s="8" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A99" s="20"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J99" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A100" s="20"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J100" s="18"/>
+    </row>
+    <row r="101" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A101" s="20"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="19"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A102" s="20">
+        <v>5</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="19"/>
+      <c r="H102" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J102" s="7"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A103" s="20"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="19"/>
+      <c r="H103" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J103" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="14"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="14"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="14"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="14"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="14"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="14"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="14"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="14">
-        <v>5</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="14"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="E54:E56"/>
+  <mergeCells count="108">
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="J81:J84"/>
+    <mergeCell ref="J87:J90"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="E85:E90"/>
+    <mergeCell ref="F86:F90"/>
+    <mergeCell ref="E79:E84"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="E71:E78"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:G66"/>
     <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="E58:E63"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="C31:C101"/>
+    <mergeCell ref="B27:B101"/>
+    <mergeCell ref="D31:D43"/>
+    <mergeCell ref="D44:D56"/>
+    <mergeCell ref="D91:D101"/>
+    <mergeCell ref="D57:D69"/>
+    <mergeCell ref="D70:D90"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E14"/>
     <mergeCell ref="B15:E26"/>
-    <mergeCell ref="C27:E30"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C31:C69"/>
-    <mergeCell ref="B27:B69"/>
-    <mergeCell ref="D31:D43"/>
-    <mergeCell ref="D44:D56"/>
-    <mergeCell ref="D57:D69"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="E41:E43"/>
@@ -3191,55 +5110,54 @@
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="E32:E37"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C27:E30"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="E45:E50"/>
     <mergeCell ref="F45:F48"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A27:A101"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="E51:E53"/>
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="E58:E63"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A27:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="B70:E71"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="B102:E103"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F101:G101"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I4:I13"/>
-    <mergeCell ref="I16:I25"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="J4:J13"/>
+    <mergeCell ref="J16:J25"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F91:G91"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="F29:G29"/>
@@ -3253,6 +5171,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="43" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -3308,7 +5230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A343" workbookViewId="0">
+    <sheetView topLeftCell="A364" workbookViewId="0">
       <selection activeCell="A347" sqref="A347"/>
     </sheetView>
   </sheetViews>
@@ -3324,7 +5246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
